--- a/Study 3/Models_link/Sets/Variables.xlsx
+++ b/Study 3/Models_link/Sets/Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM-COMPACT\Models_link\Sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 3\Models_link\Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54D08A1-8B2C-4E5A-BA75-C026927D42C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF82AF-D218-429D-82FB-7446B7A55AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GCAM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="603">
   <si>
     <t>Final Energy|Transportation|Other</t>
   </si>
@@ -1836,6 +1836,15 @@
   </si>
   <si>
     <t>Price|Carbon|Supply</t>
+  </si>
+  <si>
+    <t>Investments for MARIO|Electricity|Solar|PV</t>
+  </si>
+  <si>
+    <t>Investments for MARIO|Electricity|Wind|Offshore</t>
+  </si>
+  <si>
+    <t>Investments for MARIO|Electricity|Wind|Onshore</t>
   </si>
 </sst>
 </file>
@@ -2205,24 +2214,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B454"/>
+  <dimension ref="A1:B457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="65.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>180</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>236</v>
       </c>
@@ -2238,7 +2247,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>192</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>173</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>342</v>
       </c>
@@ -2278,7 +2287,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>591</v>
       </c>
@@ -2286,7 +2295,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>189</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>208</v>
       </c>
@@ -2302,7 +2311,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>393</v>
       </c>
@@ -2310,7 +2319,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>149</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>197</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>203</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>213</v>
       </c>
@@ -2342,7 +2351,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>191</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>316</v>
       </c>
@@ -2358,7 +2367,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>146</v>
       </c>
@@ -2366,7 +2375,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>250</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>324</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>311</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -2398,7 +2407,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>434</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>371</v>
       </c>
@@ -2414,7 +2423,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>374</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>254</v>
       </c>
@@ -2430,7 +2439,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>314</v>
       </c>
@@ -2438,7 +2447,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>302</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>386</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>172</v>
       </c>
@@ -2478,7 +2487,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>348</v>
       </c>
@@ -2494,7 +2503,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>353</v>
       </c>
@@ -2502,7 +2511,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>321</v>
       </c>
@@ -2510,7 +2519,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>165</v>
       </c>
@@ -2518,7 +2527,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>355</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>382</v>
       </c>
@@ -2550,7 +2559,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>14</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>182</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>220</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>294</v>
       </c>
@@ -2582,7 +2591,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>387</v>
       </c>
@@ -2590,7 +2599,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>247</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>237</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>420</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
@@ -2622,7 +2631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>346</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>283</v>
       </c>
@@ -2638,7 +2647,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>405</v>
       </c>
@@ -2646,7 +2655,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>367</v>
       </c>
@@ -2654,7 +2663,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>15</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>272</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>312</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>264</v>
       </c>
@@ -2686,7 +2695,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>240</v>
       </c>
@@ -2694,7 +2703,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>329</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>47</v>
       </c>
@@ -2710,7 +2719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>136</v>
       </c>
@@ -2718,7 +2727,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>260</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>122</v>
       </c>
@@ -2734,7 +2743,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>28</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>390</v>
       </c>
@@ -2750,7 +2759,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>422</v>
       </c>
@@ -2758,7 +2767,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>362</v>
       </c>
@@ -2766,7 +2775,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>54</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>286</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>93</v>
       </c>
@@ -2790,7 +2799,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>341</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>330</v>
       </c>
@@ -2806,7 +2815,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>123</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>295</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>431</v>
       </c>
@@ -2830,7 +2839,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>466</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>412</v>
       </c>
@@ -2854,7 +2863,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>243</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>200</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>407</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>230</v>
       </c>
@@ -2886,7 +2895,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>363</v>
       </c>
@@ -2894,7 +2903,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>119</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>270</v>
       </c>
@@ -2910,7 +2919,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>212</v>
       </c>
@@ -2918,7 +2927,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>216</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>244</v>
       </c>
@@ -2934,7 +2943,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>274</v>
       </c>
@@ -2942,7 +2951,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>76</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>397</v>
       </c>
@@ -2958,7 +2967,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>170</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>300</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>79</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>400</v>
       </c>
@@ -2990,7 +2999,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
@@ -2998,7 +3007,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
         <v>204</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>395</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>251</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>359</v>
       </c>
@@ -3030,7 +3039,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>360</v>
       </c>
@@ -3038,7 +3047,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>381</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>323</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>394</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>74</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>185</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>313</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>354</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>241</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
         <v>100</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
         <v>96</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
         <v>289</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>293</v>
       </c>
@@ -3134,7 +3143,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>411</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>232</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>16</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>133</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>26</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>178</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>177</v>
       </c>
@@ -3190,7 +3199,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
         <v>222</v>
       </c>
@@ -3198,7 +3207,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
         <v>288</v>
       </c>
@@ -3206,7 +3215,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
         <v>361</v>
       </c>
@@ -3214,7 +3223,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
         <v>4</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
         <v>317</v>
       </c>
@@ -3230,7 +3239,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>384</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>273</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
         <v>538</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
         <v>592</v>
       </c>
@@ -3270,7 +3279,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
         <v>370</v>
       </c>
@@ -3278,7 +3287,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
         <v>441</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
         <v>331</v>
       </c>
@@ -3294,7 +3303,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
         <v>282</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
         <v>103</v>
       </c>
@@ -3310,7 +3319,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
         <v>325</v>
       </c>
@@ -3318,7 +3327,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>358</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
         <v>48</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
         <v>87</v>
       </c>
@@ -3350,7 +3359,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
         <v>403</v>
       </c>
@@ -3358,7 +3367,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
         <v>344</v>
       </c>
@@ -3366,7 +3375,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
         <v>115</v>
       </c>
@@ -3374,7 +3383,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="3" t="s">
         <v>231</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
         <v>202</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>287</v>
       </c>
@@ -3398,7 +3407,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
         <v>69</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="3" t="s">
         <v>31</v>
       </c>
@@ -3414,7 +3423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="3" t="s">
         <v>88</v>
       </c>
@@ -3422,7 +3431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="3" t="s">
         <v>116</v>
       </c>
@@ -3430,7 +3439,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
         <v>299</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="3" t="s">
         <v>427</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="3" t="s">
         <v>315</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="3" t="s">
         <v>416</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
         <v>32</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
         <v>364</v>
       </c>
@@ -3478,7 +3487,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="3" t="s">
         <v>378</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
         <v>223</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
         <v>92</v>
       </c>
@@ -3502,7 +3511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
         <v>188</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="3" t="s">
         <v>349</v>
       </c>
@@ -3518,7 +3527,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
         <v>257</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
         <v>233</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="3" t="s">
         <v>426</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="3" t="s">
         <v>61</v>
       </c>
@@ -3550,7 +3559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
         <v>375</v>
       </c>
@@ -3558,7 +3567,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
         <v>277</v>
       </c>
@@ -3566,7 +3575,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="3" t="s">
         <v>337</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="3" t="s">
         <v>85</v>
       </c>
@@ -3582,7 +3591,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
         <v>39</v>
       </c>
@@ -3590,7 +3599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
         <v>105</v>
       </c>
@@ -3598,7 +3607,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
         <v>438</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="3" t="s">
         <v>59</v>
       </c>
@@ -3614,7 +3623,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="3" t="s">
         <v>174</v>
       </c>
@@ -3622,7 +3631,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
         <v>27</v>
       </c>
@@ -3630,7 +3639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" s="3" t="s">
         <v>327</v>
       </c>
@@ -3638,7 +3647,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
         <v>135</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" s="3" t="s">
         <v>267</v>
       </c>
@@ -3654,7 +3663,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
         <v>137</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" s="3" t="s">
         <v>263</v>
       </c>
@@ -3670,7 +3679,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="3" t="s">
         <v>134</v>
       </c>
@@ -3678,7 +3687,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" s="3" t="s">
         <v>421</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
         <v>30</v>
       </c>
@@ -3694,7 +3703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
         <v>281</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
         <v>351</v>
       </c>
@@ -3710,7 +3719,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
         <v>60</v>
       </c>
@@ -3718,7 +3727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
         <v>430</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
         <v>425</v>
       </c>
@@ -3734,7 +3743,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" s="3" t="s">
         <v>72</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="3" t="s">
         <v>217</v>
       </c>
@@ -3750,7 +3759,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
         <v>439</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" s="3" t="s">
         <v>303</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" s="3" t="s">
         <v>58</v>
       </c>
@@ -3774,7 +3783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" s="3" t="s">
         <v>336</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" s="3" t="s">
         <v>157</v>
       </c>
@@ -3790,7 +3799,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" s="3" t="s">
         <v>388</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" s="3" t="s">
         <v>278</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" s="3" t="s">
         <v>332</v>
       </c>
@@ -3814,7 +3823,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" s="3" t="s">
         <v>126</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202" s="3" t="s">
         <v>101</v>
       </c>
@@ -3830,7 +3839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203" s="3" t="s">
         <v>593</v>
       </c>
@@ -3838,7 +3847,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204" s="3" t="s">
         <v>89</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
         <v>43</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206" s="3" t="s">
         <v>291</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207" s="3" t="s">
         <v>436</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208" s="3" t="s">
         <v>9</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209" s="3" t="s">
         <v>148</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210" s="3" t="s">
         <v>235</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211" s="3" t="s">
         <v>328</v>
       </c>
@@ -3902,7 +3911,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212" s="3" t="s">
         <v>7</v>
       </c>
@@ -3910,7 +3919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213" s="3" t="s">
         <v>218</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214" s="3" t="s">
         <v>6</v>
       </c>
@@ -3926,7 +3935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215" s="3" t="s">
         <v>91</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216" s="3" t="s">
         <v>82</v>
       </c>
@@ -3942,7 +3951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217" s="3" t="s">
         <v>33</v>
       </c>
@@ -3950,7 +3959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218" s="3" t="s">
         <v>357</v>
       </c>
@@ -3958,7 +3967,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219" s="3" t="s">
         <v>169</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220" s="3" t="s">
         <v>284</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221" s="3" t="s">
         <v>205</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222" s="3" t="s">
         <v>175</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223" s="3" t="s">
         <v>292</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224" s="3" t="s">
         <v>334</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225" s="3" t="s">
         <v>44</v>
       </c>
@@ -4014,7 +4023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226" s="3" t="s">
         <v>141</v>
       </c>
@@ -4022,7 +4031,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227" s="3" t="s">
         <v>206</v>
       </c>
@@ -4030,7 +4039,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228" s="3" t="s">
         <v>410</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229" s="3" t="s">
         <v>210</v>
       </c>
@@ -4046,7 +4055,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230" s="3" t="s">
         <v>34</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231" s="3" t="s">
         <v>171</v>
       </c>
@@ -4062,7 +4071,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232" s="3" t="s">
         <v>23</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233" s="3" t="s">
         <v>261</v>
       </c>
@@ -4078,7 +4087,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234" s="3" t="s">
         <v>130</v>
       </c>
@@ -4086,7 +4095,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235" s="3" t="s">
         <v>56</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236" s="3" t="s">
         <v>40</v>
       </c>
@@ -4102,7 +4111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237" s="3" t="s">
         <v>196</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238" s="3" t="s">
         <v>106</v>
       </c>
@@ -4118,7 +4127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239" s="3" t="s">
         <v>160</v>
       </c>
@@ -4126,7 +4135,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240" s="3" t="s">
         <v>159</v>
       </c>
@@ -4134,7 +4143,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241" s="3" t="s">
         <v>158</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242" s="3" t="s">
         <v>262</v>
       </c>
@@ -4150,7 +4159,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243" s="3" t="s">
         <v>19</v>
       </c>
@@ -4158,7 +4167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244" s="3" t="s">
         <v>201</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245" s="3" t="s">
         <v>194</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246" s="3" t="s">
         <v>285</v>
       </c>
@@ -4182,7 +4191,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247" s="3" t="s">
         <v>594</v>
       </c>
@@ -4190,7 +4199,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248" s="3" t="s">
         <v>595</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249" s="3" t="s">
         <v>276</v>
       </c>
@@ -4206,7 +4215,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250" s="3" t="s">
         <v>84</v>
       </c>
@@ -4214,7 +4223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251" s="3" t="s">
         <v>339</v>
       </c>
@@ -4222,7 +4231,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252" s="3" t="s">
         <v>12</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253" s="3" t="s">
         <v>37</v>
       </c>
@@ -4238,7 +4247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254" s="3" t="s">
         <v>255</v>
       </c>
@@ -4246,7 +4255,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255" s="3" t="s">
         <v>75</v>
       </c>
@@ -4254,7 +4263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256" s="3" t="s">
         <v>111</v>
       </c>
@@ -4262,7 +4271,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257" s="3" t="s">
         <v>389</v>
       </c>
@@ -4270,7 +4279,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258" s="3" t="s">
         <v>25</v>
       </c>
@@ -4278,7 +4287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259" s="3" t="s">
         <v>198</v>
       </c>
@@ -4286,7 +4295,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260" s="3" t="s">
         <v>143</v>
       </c>
@@ -4294,7 +4303,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261" s="3" t="s">
         <v>414</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262" s="3" t="s">
         <v>52</v>
       </c>
@@ -4310,7 +4319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263" s="3" t="s">
         <v>186</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264" s="3" t="s">
         <v>55</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265" s="3" t="s">
         <v>271</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266" s="3" t="s">
         <v>156</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267" s="3" t="s">
         <v>226</v>
       </c>
@@ -4350,7 +4359,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268" s="3" t="s">
         <v>227</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269" s="3" t="s">
         <v>13</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270" s="3" t="s">
         <v>318</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271" s="3" t="s">
         <v>343</v>
       </c>
@@ -4382,7 +4391,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272" s="3" t="s">
         <v>385</v>
       </c>
@@ -4390,7 +4399,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273" s="3" t="s">
         <v>80</v>
       </c>
@@ -4398,7 +4407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274" s="3" t="s">
         <v>109</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275" s="3" t="s">
         <v>365</v>
       </c>
@@ -4414,7 +4423,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276" s="3" t="s">
         <v>269</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277" s="3" t="s">
         <v>417</v>
       </c>
@@ -4430,7 +4439,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278" s="3" t="s">
         <v>396</v>
       </c>
@@ -4438,7 +4447,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279" s="3" t="s">
         <v>347</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280" s="3" t="s">
         <v>428</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281" s="3" t="s">
         <v>319</v>
       </c>
@@ -4462,7 +4471,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282" s="3" t="s">
         <v>307</v>
       </c>
@@ -4470,7 +4479,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A283" s="3" t="s">
         <v>296</v>
       </c>
@@ -4478,7 +4487,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A284" s="3" t="s">
         <v>253</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A285" s="3" t="s">
         <v>211</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286" s="3" t="s">
         <v>275</v>
       </c>
@@ -4502,7 +4511,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A287" s="3" t="s">
         <v>399</v>
       </c>
@@ -4510,7 +4519,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A288" s="3" t="s">
         <v>147</v>
       </c>
@@ -4518,7 +4527,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A289" s="3" t="s">
         <v>398</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A290" s="3" t="s">
         <v>184</v>
       </c>
@@ -4534,7 +4543,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291" s="3" t="s">
         <v>377</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292" s="3" t="s">
         <v>22</v>
       </c>
@@ -4550,7 +4559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A293" s="3" t="s">
         <v>209</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A294" s="3" t="s">
         <v>380</v>
       </c>
@@ -4566,7 +4575,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295" s="3" t="s">
         <v>429</v>
       </c>
@@ -4574,7 +4583,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296" s="3" t="s">
         <v>0</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297" s="3" t="s">
         <v>373</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298" s="3" t="s">
         <v>139</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A299" s="3" t="s">
         <v>376</v>
       </c>
@@ -4606,7 +4615,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A300" s="3" t="s">
         <v>368</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A301" s="3" t="s">
         <v>195</v>
       </c>
@@ -4622,7 +4631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A302" s="3" t="s">
         <v>248</v>
       </c>
@@ -4630,7 +4639,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A303" s="3" t="s">
         <v>167</v>
       </c>
@@ -4638,7 +4647,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A304" s="3" t="s">
         <v>333</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A305" s="3" t="s">
         <v>308</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A306" s="3" t="s">
         <v>17</v>
       </c>
@@ -4662,7 +4671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A307" s="3" t="s">
         <v>340</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A308" s="3" t="s">
         <v>121</v>
       </c>
@@ -4678,7 +4687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A309" s="3" t="s">
         <v>70</v>
       </c>
@@ -4686,7 +4695,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A310" s="3" t="s">
         <v>383</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A311" s="3" t="s">
         <v>110</v>
       </c>
@@ -4702,7 +4711,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A312" s="3" t="s">
         <v>163</v>
       </c>
@@ -4710,7 +4719,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A313" s="3" t="s">
         <v>301</v>
       </c>
@@ -4718,7 +4727,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A314" s="3" t="s">
         <v>297</v>
       </c>
@@ -4726,7 +4735,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A315" s="3" t="s">
         <v>65</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A316" s="3" t="s">
         <v>150</v>
       </c>
@@ -4742,7 +4751,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A317" s="3" t="s">
         <v>153</v>
       </c>
@@ -4750,7 +4759,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A318" s="3" t="s">
         <v>228</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319" s="3" t="s">
         <v>320</v>
       </c>
@@ -4766,7 +4775,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A320" s="3" t="s">
         <v>266</v>
       </c>
@@ -4774,7 +4783,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A321" s="3" t="s">
         <v>131</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A322" s="3" t="s">
         <v>117</v>
       </c>
@@ -4790,7 +4799,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A323" s="3" t="s">
         <v>245</v>
       </c>
@@ -4798,7 +4807,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A324" s="3" t="s">
         <v>225</v>
       </c>
@@ -4806,7 +4815,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A325" s="3" t="s">
         <v>138</v>
       </c>
@@ -4814,7 +4823,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A326" s="3" t="s">
         <v>86</v>
       </c>
@@ -4822,7 +4831,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A327" s="3" t="s">
         <v>193</v>
       </c>
@@ -4830,7 +4839,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A328" s="3" t="s">
         <v>402</v>
       </c>
@@ -4838,7 +4847,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A329" s="3" t="s">
         <v>112</v>
       </c>
@@ -4846,7 +4855,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A330" s="3" t="s">
         <v>279</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A331" s="3" t="s">
         <v>90</v>
       </c>
@@ -4862,7 +4871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A332" s="3" t="s">
         <v>118</v>
       </c>
@@ -4870,7 +4879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A333" s="3" t="s">
         <v>77</v>
       </c>
@@ -4878,7 +4887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A334" s="3" t="s">
         <v>152</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A335" s="3" t="s">
         <v>433</v>
       </c>
@@ -4894,7 +4903,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A336" s="3" t="s">
         <v>107</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A337" s="3" t="s">
         <v>46</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A338" s="3" t="s">
         <v>102</v>
       </c>
@@ -4918,7 +4927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A339" s="3" t="s">
         <v>404</v>
       </c>
@@ -4926,7 +4935,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A340" s="3" t="s">
         <v>94</v>
       </c>
@@ -4934,7 +4943,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A341" s="3" t="s">
         <v>164</v>
       </c>
@@ -4942,7 +4951,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A342" s="3" t="s">
         <v>168</v>
       </c>
@@ -4950,7 +4959,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A343" s="3" t="s">
         <v>24</v>
       </c>
@@ -4958,7 +4967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A344" s="3" t="s">
         <v>242</v>
       </c>
@@ -4966,7 +4975,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A345" s="3" t="s">
         <v>366</v>
       </c>
@@ -4974,7 +4983,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A346" s="3" t="s">
         <v>64</v>
       </c>
@@ -4982,7 +4991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A347" s="3" t="s">
         <v>304</v>
       </c>
@@ -4990,7 +4999,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A348" s="3" t="s">
         <v>246</v>
       </c>
@@ -4998,7 +5007,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A349" s="3" t="s">
         <v>234</v>
       </c>
@@ -5006,7 +5015,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A350" s="3" t="s">
         <v>187</v>
       </c>
@@ -5014,7 +5023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A351" s="3" t="s">
         <v>10</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A352" s="3" t="s">
         <v>36</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A353" s="3" t="s">
         <v>356</v>
       </c>
@@ -5038,7 +5047,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A354" s="3" t="s">
         <v>83</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A355" s="3" t="s">
         <v>161</v>
       </c>
@@ -5054,7 +5063,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A356" s="3" t="s">
         <v>440</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A357" s="3" t="s">
         <v>113</v>
       </c>
@@ -5070,7 +5079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A358" s="3" t="s">
         <v>306</v>
       </c>
@@ -5078,7 +5087,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A359" s="3" t="s">
         <v>129</v>
       </c>
@@ -5086,7 +5095,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A360" s="3" t="s">
         <v>214</v>
       </c>
@@ -5094,7 +5103,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A361" s="3" t="s">
         <v>67</v>
       </c>
@@ -5102,7 +5111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A362" s="3" t="s">
         <v>162</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A363" s="3" t="s">
         <v>437</v>
       </c>
@@ -5118,7 +5127,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A364" s="3" t="s">
         <v>68</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A365" s="3" t="s">
         <v>596</v>
       </c>
@@ -5134,7 +5143,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A366" s="3" t="s">
         <v>597</v>
       </c>
@@ -5142,7 +5151,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A367" s="3" t="s">
         <v>598</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A368" s="3" t="s">
         <v>599</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A369" s="3" t="s">
         <v>219</v>
       </c>
@@ -5166,7 +5175,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A370" s="3" t="s">
         <v>259</v>
       </c>
@@ -5174,7 +5183,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A371" s="3" t="s">
         <v>8</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A372" s="3" t="s">
         <v>252</v>
       </c>
@@ -5190,7 +5199,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A373" s="3" t="s">
         <v>125</v>
       </c>
@@ -5198,7 +5207,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A374" s="3" t="s">
         <v>305</v>
       </c>
@@ -5206,7 +5215,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A375" s="3" t="s">
         <v>322</v>
       </c>
@@ -5214,7 +5223,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A376" s="3" t="s">
         <v>128</v>
       </c>
@@ -5222,7 +5231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A377" s="3" t="s">
         <v>309</v>
       </c>
@@ -5230,7 +5239,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A378" s="3" t="s">
         <v>51</v>
       </c>
@@ -5238,7 +5247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A379" s="3" t="s">
         <v>179</v>
       </c>
@@ -5246,7 +5255,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A380" s="3" t="s">
         <v>392</v>
       </c>
@@ -5254,7 +5263,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A381" s="3" t="s">
         <v>181</v>
       </c>
@@ -5262,7 +5271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A382" s="3" t="s">
         <v>176</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A383" s="3" t="s">
         <v>18</v>
       </c>
@@ -5278,7 +5287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A384" s="3" t="s">
         <v>151</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A385" s="3" t="s">
         <v>63</v>
       </c>
@@ -5294,7 +5303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A386" s="3" t="s">
         <v>345</v>
       </c>
@@ -5302,7 +5311,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A387" s="3" t="s">
         <v>71</v>
       </c>
@@ -5310,7 +5319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A388" s="3" t="s">
         <v>352</v>
       </c>
@@ -5318,7 +5327,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A389" s="3" t="s">
         <v>310</v>
       </c>
@@ -5326,7 +5335,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A390" s="3" t="s">
         <v>45</v>
       </c>
@@ -5334,7 +5343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A391" s="3" t="s">
         <v>409</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A392" s="3" t="s">
         <v>5</v>
       </c>
@@ -5350,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A393" s="3" t="s">
         <v>81</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A394" s="3" t="s">
         <v>132</v>
       </c>
@@ -5366,7 +5375,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A395" s="3" t="s">
         <v>432</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A396" s="3" t="s">
         <v>221</v>
       </c>
@@ -5382,7 +5391,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A397" s="3" t="s">
         <v>166</v>
       </c>
@@ -5390,7 +5399,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A398" s="3" t="s">
         <v>408</v>
       </c>
@@ -5398,7 +5407,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A399" s="3" t="s">
         <v>199</v>
       </c>
@@ -5406,7 +5415,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A400" s="3" t="s">
         <v>280</v>
       </c>
@@ -5414,7 +5423,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A401" s="3" t="s">
         <v>95</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A402" s="3" t="s">
         <v>50</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A403" s="3" t="s">
         <v>239</v>
       </c>
@@ -5438,7 +5447,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A404" s="3" t="s">
         <v>41</v>
       </c>
@@ -5446,7 +5455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A405" s="3" t="s">
         <v>57</v>
       </c>
@@ -5454,7 +5463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A406" s="3" t="s">
         <v>145</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A407" s="3" t="s">
         <v>229</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A408" s="3" t="s">
         <v>238</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A409" s="3" t="s">
         <v>53</v>
       </c>
@@ -5486,7 +5495,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A410" s="3" t="s">
         <v>38</v>
       </c>
@@ -5494,7 +5503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A411" s="3" t="s">
         <v>215</v>
       </c>
@@ -5502,7 +5511,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A412" s="3" t="s">
         <v>190</v>
       </c>
@@ -5510,7 +5519,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A413" s="3" t="s">
         <v>338</v>
       </c>
@@ -5518,7 +5527,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A414" s="3" t="s">
         <v>401</v>
       </c>
@@ -5526,7 +5535,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A415" s="3" t="s">
         <v>98</v>
       </c>
@@ -5534,7 +5543,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A416" s="3" t="s">
         <v>419</v>
       </c>
@@ -5542,7 +5551,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A417" s="3" t="s">
         <v>249</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A418" s="3" t="s">
         <v>114</v>
       </c>
@@ -5558,7 +5567,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A419" s="3" t="s">
         <v>2</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A420" s="3" t="s">
         <v>49</v>
       </c>
@@ -5574,7 +5583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A421" s="3" t="s">
         <v>104</v>
       </c>
@@ -5582,7 +5591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A422" s="3" t="s">
         <v>298</v>
       </c>
@@ -5590,7 +5599,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A423" s="3" t="s">
         <v>99</v>
       </c>
@@ -5598,7 +5607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A424" s="3" t="s">
         <v>424</v>
       </c>
@@ -5606,7 +5615,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A425" s="3" t="s">
         <v>142</v>
       </c>
@@ -5614,7 +5623,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A426" s="3" t="s">
         <v>21</v>
       </c>
@@ -5622,7 +5631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A427" s="3" t="s">
         <v>418</v>
       </c>
@@ -5630,7 +5639,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A428" s="3" t="s">
         <v>35</v>
       </c>
@@ -5638,7 +5647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A429" s="3" t="s">
         <v>256</v>
       </c>
@@ -5646,7 +5655,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A430" s="3" t="s">
         <v>29</v>
       </c>
@@ -5654,7 +5663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A431" s="3" t="s">
         <v>265</v>
       </c>
@@ -5662,7 +5671,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A432" s="3" t="s">
         <v>124</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A433" s="3" t="s">
         <v>391</v>
       </c>
@@ -5678,7 +5687,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A434" s="3" t="s">
         <v>268</v>
       </c>
@@ -5686,7 +5695,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A435" s="3" t="s">
         <v>372</v>
       </c>
@@ -5694,7 +5703,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A436" s="3" t="s">
         <v>413</v>
       </c>
@@ -5702,7 +5711,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A437" s="3" t="s">
         <v>73</v>
       </c>
@@ -5710,7 +5719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A438" s="3" t="s">
         <v>435</v>
       </c>
@@ -5718,7 +5727,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A439" s="3" t="s">
         <v>290</v>
       </c>
@@ -5726,7 +5735,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A440" s="3" t="s">
         <v>154</v>
       </c>
@@ -5734,7 +5743,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A441" s="3" t="s">
         <v>379</v>
       </c>
@@ -5742,7 +5751,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A442" s="3" t="s">
         <v>224</v>
       </c>
@@ -5750,7 +5759,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A443" s="3" t="s">
         <v>155</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A444" s="3" t="s">
         <v>326</v>
       </c>
@@ -5766,7 +5775,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A445" s="3" t="s">
         <v>120</v>
       </c>
@@ -5774,7 +5783,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A446" s="3" t="s">
         <v>415</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A447" s="3" t="s">
         <v>183</v>
       </c>
@@ -5790,7 +5799,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A448" s="3" t="s">
         <v>406</v>
       </c>
@@ -5798,7 +5807,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A449" s="3" t="s">
         <v>144</v>
       </c>
@@ -5806,7 +5815,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A450" s="3" t="s">
         <v>207</v>
       </c>
@@ -5814,7 +5823,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A451" s="3" t="s">
         <v>369</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A452" s="3" t="s">
         <v>350</v>
       </c>
@@ -5830,7 +5839,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A453" s="3" t="s">
         <v>423</v>
       </c>
@@ -5838,12 +5847,36 @@
         <v>423</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A454" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A455" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B455" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A456" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B456" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A457" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B457" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5862,17 +5895,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>442</v>
       </c>
@@ -5880,7 +5913,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>341</v>
       </c>
@@ -5888,7 +5921,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5896,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5904,7 +5937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5912,7 +5945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>237</v>
       </c>
@@ -5920,7 +5953,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -5928,7 +5961,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>238</v>
       </c>
@@ -5936,7 +5969,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -5944,7 +5977,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>239</v>
       </c>
@@ -5952,7 +5985,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -5960,7 +5993,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>124</v>
       </c>
@@ -5968,7 +6001,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>444</v>
       </c>
@@ -5976,7 +6009,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>346</v>
       </c>
@@ -5984,7 +6017,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>347</v>
       </c>
@@ -5992,7 +6025,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>348</v>
       </c>
@@ -6000,7 +6033,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>241</v>
       </c>
@@ -6008,7 +6041,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>242</v>
       </c>
@@ -6016,7 +6049,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>247</v>
       </c>
@@ -6024,7 +6057,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>445</v>
       </c>
@@ -6032,7 +6065,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>249</v>
       </c>
@@ -6040,7 +6073,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>338</v>
       </c>
@@ -6048,7 +6081,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>354</v>
       </c>
@@ -6056,7 +6089,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>446</v>
       </c>
@@ -6064,7 +6097,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>355</v>
       </c>
@@ -6072,7 +6105,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -6080,7 +6113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>447</v>
       </c>
@@ -6088,7 +6121,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -6096,7 +6129,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>139</v>
       </c>
@@ -6104,7 +6137,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>256</v>
       </c>
@@ -6112,7 +6145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -6120,7 +6153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>448</v>
       </c>
@@ -6128,7 +6161,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>449</v>
       </c>
@@ -6136,7 +6169,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -6144,7 +6177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -6152,7 +6185,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>261</v>
       </c>
@@ -6160,7 +6193,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -6168,7 +6201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -6176,7 +6209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
@@ -6184,7 +6217,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
@@ -6192,7 +6225,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -6200,7 +6233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>450</v>
       </c>
@@ -6208,7 +6241,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>361</v>
       </c>
@@ -6216,7 +6249,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>451</v>
       </c>
@@ -6224,7 +6257,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -6232,7 +6265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>362</v>
       </c>
@@ -6240,7 +6273,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>152</v>
       </c>
@@ -6248,7 +6281,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -6256,7 +6289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>265</v>
       </c>
@@ -6264,7 +6297,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -6272,7 +6305,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>365</v>
       </c>
@@ -6280,7 +6313,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>368</v>
       </c>
@@ -6288,7 +6321,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
@@ -6296,7 +6329,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
@@ -6304,7 +6337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -6312,7 +6345,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>158</v>
       </c>
@@ -6320,7 +6353,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
@@ -6328,7 +6361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
@@ -6336,7 +6369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>373</v>
       </c>
@@ -6344,7 +6377,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
@@ -6352,7 +6385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>376</v>
       </c>
@@ -6360,7 +6393,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>452</v>
       </c>
@@ -6368,7 +6401,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>377</v>
       </c>
@@ -6376,7 +6409,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>275</v>
       </c>
@@ -6384,7 +6417,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>453</v>
       </c>
@@ -6392,7 +6425,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>164</v>
       </c>
@@ -6400,7 +6433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>50</v>
       </c>
@@ -6408,7 +6441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>165</v>
       </c>
@@ -6416,7 +6449,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>276</v>
       </c>
@@ -6424,7 +6457,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>166</v>
       </c>
@@ -6432,7 +6465,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>454</v>
       </c>
@@ -6440,7 +6473,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>169</v>
       </c>
@@ -6448,7 +6481,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>52</v>
       </c>
@@ -6456,7 +6489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>171</v>
       </c>
@@ -6464,7 +6497,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>278</v>
       </c>
@@ -6472,7 +6505,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>279</v>
       </c>
@@ -6480,7 +6513,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>280</v>
       </c>
@@ -6488,7 +6521,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>53</v>
       </c>
@@ -6496,7 +6529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>54</v>
       </c>
@@ -6504,7 +6537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>379</v>
       </c>
@@ -6512,7 +6545,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>284</v>
       </c>
@@ -6520,7 +6553,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>57</v>
       </c>
@@ -6528,7 +6561,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>382</v>
       </c>
@@ -6536,7 +6569,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>58</v>
       </c>
@@ -6544,7 +6577,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>455</v>
       </c>
@@ -6552,7 +6585,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>456</v>
       </c>
@@ -6560,7 +6593,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>384</v>
       </c>
@@ -6568,7 +6601,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>457</v>
       </c>
@@ -6576,7 +6609,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>458</v>
       </c>
@@ -6584,7 +6617,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
@@ -6592,7 +6625,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>386</v>
       </c>
@@ -6600,7 +6633,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>286</v>
       </c>
@@ -6608,7 +6641,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>387</v>
       </c>
@@ -6616,7 +6649,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>288</v>
       </c>
@@ -6624,7 +6657,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>388</v>
       </c>
@@ -6632,7 +6665,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>64</v>
       </c>
@@ -6640,7 +6673,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>178</v>
       </c>
@@ -6648,7 +6681,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>182</v>
       </c>
@@ -6656,7 +6689,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>183</v>
       </c>
@@ -6664,7 +6697,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>66</v>
       </c>
@@ -6672,7 +6705,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>459</v>
       </c>
@@ -6680,7 +6713,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>68</v>
       </c>
@@ -6688,7 +6721,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>290</v>
       </c>
@@ -6696,7 +6729,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>292</v>
       </c>
@@ -6704,7 +6737,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>460</v>
       </c>
@@ -6712,7 +6745,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>396</v>
       </c>
@@ -6720,7 +6753,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>461</v>
       </c>
@@ -6728,7 +6761,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>399</v>
       </c>
@@ -6736,7 +6769,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>295</v>
       </c>
@@ -6744,7 +6777,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>186</v>
       </c>
@@ -6752,7 +6785,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>73</v>
       </c>
@@ -6760,7 +6793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>190</v>
       </c>
@@ -6768,7 +6801,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>462</v>
       </c>
@@ -6776,7 +6809,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>401</v>
       </c>
@@ -6784,7 +6817,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>402</v>
       </c>
@@ -6792,7 +6825,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>404</v>
       </c>
@@ -6800,7 +6833,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>74</v>
       </c>
@@ -6808,7 +6841,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>406</v>
       </c>
@@ -6816,7 +6849,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>193</v>
       </c>
@@ -6824,7 +6857,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>408</v>
       </c>
@@ -6832,7 +6865,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>77</v>
       </c>
@@ -6840,7 +6873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>463</v>
       </c>
@@ -6848,7 +6881,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>307</v>
       </c>
@@ -6856,7 +6889,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>199</v>
       </c>
@@ -6864,7 +6897,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>413</v>
       </c>
@@ -6872,7 +6905,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>464</v>
       </c>
@@ -6880,7 +6913,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>205</v>
       </c>
@@ -6888,7 +6921,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>414</v>
       </c>
@@ -6896,7 +6929,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>465</v>
       </c>
@@ -6904,7 +6937,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>466</v>
       </c>
@@ -6912,7 +6945,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>415</v>
       </c>
@@ -6920,7 +6953,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>417</v>
       </c>
@@ -6928,7 +6961,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>209</v>
       </c>
@@ -6936,7 +6969,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>313</v>
       </c>
@@ -6944,7 +6977,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>419</v>
       </c>
@@ -6952,7 +6985,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>420</v>
       </c>
@@ -6960,7 +6993,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>467</v>
       </c>
@@ -6968,7 +7001,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>90</v>
       </c>
@@ -6976,7 +7009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>317</v>
       </c>
@@ -6984,7 +7017,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>211</v>
       </c>
@@ -6992,7 +7025,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>93</v>
       </c>
@@ -7000,7 +7033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>468</v>
       </c>
@@ -7008,7 +7041,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>422</v>
       </c>
@@ -7016,7 +7049,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>469</v>
       </c>
@@ -7024,7 +7057,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>94</v>
       </c>
@@ -7032,7 +7065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>470</v>
       </c>
@@ -7040,7 +7073,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>319</v>
       </c>
@@ -7048,7 +7081,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>95</v>
       </c>
@@ -7056,7 +7089,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>471</v>
       </c>
@@ -7064,7 +7097,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>98</v>
       </c>
@@ -7072,7 +7105,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>214</v>
       </c>
@@ -7080,7 +7113,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>321</v>
       </c>
@@ -7088,7 +7121,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>215</v>
       </c>
@@ -7096,7 +7129,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>99</v>
       </c>
@@ -7104,7 +7137,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>102</v>
       </c>
@@ -7112,7 +7145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>472</v>
       </c>
@@ -7120,7 +7153,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>424</v>
       </c>
@@ -7128,7 +7161,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>473</v>
       </c>
@@ -7136,7 +7169,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>107</v>
       </c>
@@ -7144,7 +7177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>474</v>
       </c>
@@ -7152,7 +7185,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>108</v>
       </c>
@@ -7160,7 +7193,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>475</v>
       </c>
@@ -7168,7 +7201,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>330</v>
       </c>
@@ -7176,7 +7209,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>109</v>
       </c>
@@ -7184,7 +7217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>112</v>
       </c>
@@ -7192,7 +7225,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>114</v>
       </c>
@@ -7200,7 +7233,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>224</v>
       </c>
@@ -7208,7 +7241,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>332</v>
       </c>
@@ -7216,7 +7249,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>229</v>
       </c>
@@ -7224,7 +7257,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>433</v>
       </c>
@@ -7232,7 +7265,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>435</v>
       </c>
@@ -7240,7 +7273,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>118</v>
       </c>
@@ -7248,7 +7281,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>336</v>
       </c>
@@ -7256,7 +7289,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>476</v>
       </c>
@@ -7264,7 +7297,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>477</v>
       </c>
@@ -7288,17 +7321,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="76.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>478</v>
       </c>
@@ -7306,7 +7339,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
@@ -7314,7 +7347,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>479</v>
       </c>
@@ -7322,7 +7355,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>480</v>
       </c>
@@ -7330,7 +7363,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>347</v>
       </c>
@@ -7338,7 +7371,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>241</v>
       </c>
@@ -7346,7 +7379,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>352</v>
       </c>
@@ -7354,7 +7387,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>481</v>
       </c>
@@ -7362,7 +7395,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -7370,7 +7403,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -7378,7 +7411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>354</v>
       </c>
@@ -7386,7 +7419,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>446</v>
       </c>
@@ -7394,7 +7427,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -7402,7 +7435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>482</v>
       </c>
@@ -7410,7 +7443,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
@@ -7418,7 +7451,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>483</v>
       </c>
@@ -7426,7 +7459,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -7434,7 +7467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>484</v>
       </c>
@@ -7442,7 +7475,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -7450,7 +7483,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>261</v>
       </c>
@@ -7458,7 +7491,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -7466,7 +7499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>485</v>
       </c>
@@ -7474,7 +7507,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>486</v>
       </c>
@@ -7482,7 +7515,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -7490,7 +7523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>262</v>
       </c>
@@ -7498,7 +7531,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -7506,7 +7539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>361</v>
       </c>
@@ -7514,7 +7547,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -7522,7 +7555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>487</v>
       </c>
@@ -7530,7 +7563,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>488</v>
       </c>
@@ -7538,7 +7571,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>489</v>
       </c>
@@ -7546,7 +7579,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>490</v>
       </c>
@@ -7554,7 +7587,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>157</v>
       </c>
@@ -7562,7 +7595,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>158</v>
       </c>
@@ -7570,7 +7603,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>491</v>
       </c>
@@ -7578,7 +7611,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>492</v>
       </c>
@@ -7586,7 +7619,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>493</v>
       </c>
@@ -7594,7 +7627,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>273</v>
       </c>
@@ -7602,7 +7635,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>494</v>
       </c>
@@ -7610,7 +7643,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>377</v>
       </c>
@@ -7618,7 +7651,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>495</v>
       </c>
@@ -7626,7 +7659,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -7634,7 +7667,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
@@ -7642,7 +7675,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>278</v>
       </c>
@@ -7650,7 +7683,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>496</v>
       </c>
@@ -7658,7 +7691,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>497</v>
       </c>
@@ -7666,7 +7699,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>284</v>
       </c>
@@ -7674,7 +7707,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -7682,7 +7715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>384</v>
       </c>
@@ -7690,7 +7723,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>498</v>
       </c>
@@ -7698,7 +7731,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>175</v>
       </c>
@@ -7706,7 +7739,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>385</v>
       </c>
@@ -7714,7 +7747,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>288</v>
       </c>
@@ -7722,7 +7755,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>499</v>
       </c>
@@ -7730,7 +7763,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>178</v>
       </c>
@@ -7738,7 +7771,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>389</v>
       </c>
@@ -7746,7 +7779,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>392</v>
       </c>
@@ -7754,7 +7787,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>500</v>
       </c>
@@ -7762,7 +7795,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -7770,7 +7803,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -7778,7 +7811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>501</v>
       </c>
@@ -7786,7 +7819,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>292</v>
       </c>
@@ -7794,7 +7827,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>396</v>
       </c>
@@ -7802,7 +7835,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>293</v>
       </c>
@@ -7810,7 +7843,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>502</v>
       </c>
@@ -7818,7 +7851,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>503</v>
       </c>
@@ -7826,7 +7859,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>504</v>
       </c>
@@ -7834,7 +7867,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -7842,7 +7875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -7850,7 +7883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>505</v>
       </c>
@@ -7858,7 +7891,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>198</v>
       </c>
@@ -7866,7 +7899,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>305</v>
       </c>
@@ -7874,7 +7907,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
@@ -7882,7 +7915,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>307</v>
       </c>
@@ -7890,7 +7923,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>411</v>
       </c>
@@ -7898,7 +7931,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>506</v>
       </c>
@@ -7906,7 +7939,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>201</v>
       </c>
@@ -7914,7 +7947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>507</v>
       </c>
@@ -7922,7 +7955,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>310</v>
       </c>
@@ -7930,7 +7963,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>209</v>
       </c>
@@ -7938,7 +7971,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>313</v>
       </c>
@@ -7946,7 +7979,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>317</v>
       </c>
@@ -7954,7 +7987,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>508</v>
       </c>
@@ -7962,7 +7995,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>211</v>
       </c>
@@ -7970,7 +8003,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>319</v>
       </c>
@@ -7978,7 +8011,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -7986,7 +8019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>509</v>
       </c>
@@ -7994,7 +8027,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>214</v>
       </c>
@@ -8002,7 +8035,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>423</v>
       </c>
@@ -8010,7 +8043,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
@@ -8018,7 +8051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>323</v>
       </c>
@@ -8026,7 +8059,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>219</v>
       </c>
@@ -8034,7 +8067,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>510</v>
       </c>
@@ -8042,7 +8075,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>428</v>
       </c>
@@ -8050,7 +8083,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>222</v>
       </c>
@@ -8058,7 +8091,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>108</v>
       </c>
@@ -8066,7 +8099,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>511</v>
       </c>
@@ -8074,7 +8107,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
@@ -8082,7 +8115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>227</v>
       </c>
@@ -8090,7 +8123,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>512</v>
       </c>
@@ -8098,7 +8131,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>332</v>
       </c>
@@ -8106,7 +8139,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>513</v>
       </c>
@@ -8114,7 +8147,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>336</v>
       </c>
@@ -8122,7 +8155,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>232</v>
       </c>
@@ -8130,7 +8163,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>514</v>
       </c>
@@ -8138,7 +8171,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>515</v>
       </c>
@@ -8146,7 +8179,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>339</v>
       </c>
@@ -8170,17 +8203,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>442</v>
       </c>
@@ -8188,7 +8221,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>516</v>
       </c>
@@ -8196,7 +8229,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>517</v>
       </c>
@@ -8204,7 +8237,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>518</v>
       </c>
@@ -8212,7 +8245,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -8220,7 +8253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>519</v>
       </c>
@@ -8228,7 +8261,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -8236,7 +8269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>520</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>238</v>
       </c>
@@ -8252,7 +8285,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>521</v>
       </c>
@@ -8260,7 +8293,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>522</v>
       </c>
@@ -8268,7 +8301,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>479</v>
       </c>
@@ -8276,7 +8309,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>523</v>
       </c>
@@ -8284,7 +8317,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>524</v>
       </c>
@@ -8292,7 +8325,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>128</v>
       </c>
@@ -8300,7 +8333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>525</v>
       </c>
@@ -8308,7 +8341,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>350</v>
       </c>
@@ -8316,7 +8349,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>241</v>
       </c>
@@ -8324,7 +8357,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>526</v>
       </c>
@@ -8332,7 +8365,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>244</v>
       </c>
@@ -8340,7 +8373,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>527</v>
       </c>
@@ -8348,7 +8381,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>528</v>
       </c>
@@ -8356,7 +8389,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>352</v>
       </c>
@@ -8364,7 +8397,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>529</v>
       </c>
@@ -8372,7 +8405,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>481</v>
       </c>
@@ -8380,7 +8413,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>249</v>
       </c>
@@ -8388,7 +8421,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>354</v>
       </c>
@@ -8396,7 +8429,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>530</v>
       </c>
@@ -8404,7 +8437,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>531</v>
       </c>
@@ -8412,7 +8445,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -8420,7 +8453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>138</v>
       </c>
@@ -8428,7 +8461,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>448</v>
       </c>
@@ -8436,7 +8469,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>532</v>
       </c>
@@ -8444,7 +8477,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>259</v>
       </c>
@@ -8452,7 +8485,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>533</v>
       </c>
@@ -8460,7 +8493,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -8468,7 +8501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>534</v>
       </c>
@@ -8476,7 +8509,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>262</v>
       </c>
@@ -8484,7 +8517,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>535</v>
       </c>
@@ -8492,7 +8525,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>536</v>
       </c>
@@ -8500,7 +8533,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>361</v>
       </c>
@@ -8508,7 +8541,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>537</v>
       </c>
@@ -8516,7 +8549,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>538</v>
       </c>
@@ -8524,7 +8557,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>488</v>
       </c>
@@ -8532,7 +8565,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>489</v>
       </c>
@@ -8540,7 +8573,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>539</v>
       </c>
@@ -8548,7 +8581,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>156</v>
       </c>
@@ -8556,7 +8589,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>540</v>
       </c>
@@ -8564,7 +8597,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
@@ -8572,7 +8605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
@@ -8580,7 +8613,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>158</v>
       </c>
@@ -8588,7 +8621,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
@@ -8596,7 +8629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>541</v>
       </c>
@@ -8604,7 +8637,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>271</v>
       </c>
@@ -8612,7 +8645,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
@@ -8620,7 +8653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>373</v>
       </c>
@@ -8628,7 +8661,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
@@ -8636,7 +8669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>273</v>
       </c>
@@ -8644,7 +8677,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>542</v>
       </c>
@@ -8652,7 +8685,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>377</v>
       </c>
@@ -8660,7 +8693,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>275</v>
       </c>
@@ -8668,7 +8701,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>166</v>
       </c>
@@ -8676,7 +8709,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>276</v>
       </c>
@@ -8684,7 +8717,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>169</v>
       </c>
@@ -8692,7 +8725,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>543</v>
       </c>
@@ -8700,7 +8733,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>52</v>
       </c>
@@ -8708,7 +8741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>171</v>
       </c>
@@ -8716,7 +8749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>278</v>
       </c>
@@ -8724,7 +8757,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>544</v>
       </c>
@@ -8732,7 +8765,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>545</v>
       </c>
@@ -8740,7 +8773,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>546</v>
       </c>
@@ -8748,7 +8781,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>284</v>
       </c>
@@ -8756,7 +8789,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>58</v>
       </c>
@@ -8764,7 +8797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>384</v>
       </c>
@@ -8772,7 +8805,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>547</v>
       </c>
@@ -8780,7 +8813,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>175</v>
       </c>
@@ -8788,7 +8821,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>176</v>
       </c>
@@ -8796,7 +8829,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>548</v>
       </c>
@@ -8804,7 +8837,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>549</v>
       </c>
@@ -8812,7 +8845,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>288</v>
       </c>
@@ -8820,7 +8853,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>388</v>
       </c>
@@ -8828,7 +8861,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>550</v>
       </c>
@@ -8836,7 +8869,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>551</v>
       </c>
@@ -8844,7 +8877,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>178</v>
       </c>
@@ -8852,7 +8885,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>181</v>
       </c>
@@ -8860,7 +8893,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>552</v>
       </c>
@@ -8868,7 +8901,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>392</v>
       </c>
@@ -8876,7 +8909,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>500</v>
       </c>
@@ -8884,7 +8917,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>185</v>
       </c>
@@ -8892,7 +8925,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>68</v>
       </c>
@@ -8900,7 +8933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>292</v>
       </c>
@@ -8908,7 +8941,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>394</v>
       </c>
@@ -8916,7 +8949,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>396</v>
       </c>
@@ -8924,7 +8957,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>553</v>
       </c>
@@ -8932,7 +8965,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>554</v>
       </c>
@@ -8940,7 +8973,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>555</v>
       </c>
@@ -8948,7 +8981,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>556</v>
       </c>
@@ -8956,7 +8989,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>557</v>
       </c>
@@ -8964,7 +8997,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>558</v>
       </c>
@@ -8972,7 +9005,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>559</v>
       </c>
@@ -8980,7 +9013,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
@@ -8988,7 +9021,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>560</v>
       </c>
@@ -8996,7 +9029,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>74</v>
       </c>
@@ -9004,7 +9037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>406</v>
       </c>
@@ -9012,7 +9045,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>561</v>
       </c>
@@ -9020,7 +9053,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>408</v>
       </c>
@@ -9028,7 +9061,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>409</v>
       </c>
@@ -9036,7 +9069,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>305</v>
       </c>
@@ -9044,7 +9077,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>562</v>
       </c>
@@ -9052,7 +9085,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>307</v>
       </c>
@@ -9060,7 +9093,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>413</v>
       </c>
@@ -9068,7 +9101,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>563</v>
       </c>
@@ -9076,7 +9109,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>205</v>
       </c>
@@ -9084,7 +9117,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>414</v>
       </c>
@@ -9092,7 +9125,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>465</v>
       </c>
@@ -9100,7 +9133,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>564</v>
       </c>
@@ -9108,7 +9141,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>310</v>
       </c>
@@ -9116,7 +9149,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>209</v>
       </c>
@@ -9124,7 +9157,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>565</v>
       </c>
@@ -9132,7 +9165,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>313</v>
       </c>
@@ -9140,7 +9173,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>566</v>
       </c>
@@ -9148,7 +9181,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>419</v>
       </c>
@@ -9156,7 +9189,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>317</v>
       </c>
@@ -9164,7 +9197,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>567</v>
       </c>
@@ -9172,7 +9205,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>568</v>
       </c>
@@ -9180,7 +9213,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>569</v>
       </c>
@@ -9188,7 +9221,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>211</v>
       </c>
@@ -9196,7 +9229,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>570</v>
       </c>
@@ -9204,7 +9237,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>95</v>
       </c>
@@ -9212,7 +9245,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>571</v>
       </c>
@@ -9220,7 +9253,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>572</v>
       </c>
@@ -9228,7 +9261,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>214</v>
       </c>
@@ -9236,7 +9269,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>215</v>
       </c>
@@ -9244,7 +9277,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>99</v>
       </c>
@@ -9252,7 +9285,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>423</v>
       </c>
@@ -9260,7 +9293,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>573</v>
       </c>
@@ -9268,7 +9301,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>323</v>
       </c>
@@ -9276,7 +9309,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>574</v>
       </c>
@@ -9284,7 +9317,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>575</v>
       </c>
@@ -9292,7 +9325,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>322</v>
       </c>
@@ -9300,7 +9333,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>219</v>
       </c>
@@ -9308,7 +9341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>221</v>
       </c>
@@ -9316,7 +9349,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>576</v>
       </c>
@@ -9324,7 +9357,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>108</v>
       </c>
@@ -9332,7 +9365,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>577</v>
       </c>
@@ -9340,7 +9373,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>578</v>
       </c>
@@ -9348,7 +9381,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>109</v>
       </c>
@@ -9356,7 +9389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>579</v>
       </c>
@@ -9364,7 +9397,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>580</v>
       </c>
@@ -9372,7 +9405,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>581</v>
       </c>
@@ -9380,7 +9413,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>582</v>
       </c>
@@ -9388,7 +9421,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>225</v>
       </c>
@@ -9396,7 +9429,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>114</v>
       </c>
@@ -9404,7 +9437,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>512</v>
       </c>
@@ -9412,7 +9445,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>583</v>
       </c>
@@ -9420,7 +9453,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>332</v>
       </c>
@@ -9428,7 +9461,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>584</v>
       </c>
@@ -9436,7 +9469,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>585</v>
       </c>
@@ -9444,7 +9477,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>229</v>
       </c>
@@ -9452,7 +9485,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>586</v>
       </c>
@@ -9460,7 +9493,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>335</v>
       </c>
@@ -9468,7 +9501,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>336</v>
       </c>
@@ -9476,7 +9509,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>514</v>
       </c>
@@ -9484,7 +9517,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>587</v>
       </c>
@@ -9492,7 +9525,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>338</v>
       </c>
@@ -9500,7 +9533,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>588</v>
       </c>
@@ -9508,7 +9541,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>589</v>
       </c>
